--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,63 +453,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_01</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,37 +518,37 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,33 +557,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,50 +622,50 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,72 +674,72 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_05</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_06</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_07</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,11 +752,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_09</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_10</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_03</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,50 +791,50 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_04</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_05</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_06</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_06</t>
+          <t>1K_PFF_SCR_03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -843,37 +843,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_SCR_03</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_SCR_03</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_SCR_04</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -882,24 +882,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_SCR_04</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_09</t>
+          <t>1K_PFF_SCR_04</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,13 +908,377 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>1K_PFF_SCR_05</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_06</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_08</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_09</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1K_PFF_SCR_10</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_01</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_02</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>1K_PFF_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,20 +460,20 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_01</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -483,23 +483,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_02</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -509,23 +509,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -544,14 +544,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -561,23 +561,23 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -639,33 +639,33 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,72 +674,72 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -752,24 +752,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_SCR_03</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_SCR_04</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,76 +791,76 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_SCR_05</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_SCR_06</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_07</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_SCR_08</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_SCR_09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_SCR_10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,33 +882,33 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_05</t>
+          <t>1K_PFF_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_06</t>
+          <t>1K_PFF_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_07</t>
+          <t>1K_PFF_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,37 +947,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_TAX1BP1_06</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_09</t>
+          <t>1K_PFF_TAX1BP1_07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_10</t>
+          <t>1K_PFF_TAX1BP1_08</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_TAX1BP1_09</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,260 +1025,13 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_TAX1BP1_10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_01</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_02</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_03</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_03</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_04</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_05</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_06</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_06</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_06</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_07</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_07</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_08</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_09</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_10</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_10</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_10</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1K_PFF_TAX1BP1_10</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>3</v>
-      </c>
-      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -486,20 +486,20 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_03</t>
+          <t>1K_PFF_ADAMTS19_02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -509,20 +509,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,79 +531,79 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_03</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_04</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_06</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -648,37 +648,37 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_07</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,11 +687,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -700,24 +700,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,50 +726,50 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,11 +778,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -791,11 +791,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_05</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,24 +804,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_06</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_07</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_09</t>
+          <t>1K_PFF_SCR_03</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_10</t>
+          <t>1K_PFF_SCR_04</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_05</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,50 +882,50 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_06</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_SCR_07</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_03</t>
+          <t>1K_PFF_SCR_08</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_04</t>
+          <t>1K_PFF_SCR_08</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_05</t>
+          <t>1K_PFF_SCR_09</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_06</t>
+          <t>1K_PFF_SCR_10</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,11 +960,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_06</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,24 +973,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,26 +1012,182 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_09</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>1K_PFF_TAX1BP1_03</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_04</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_05</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>1K_PFF_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">

--- a/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
+++ b/PFF_SCR_TAX_ADAM/281024_analysis_by_cell_NEW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -564,20 +564,20 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_04</t>
+          <t>1K_PFF_ADAMTS19_05</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -587,23 +587,23 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_05</t>
+          <t>1K_PFF_ADAMTS19_06</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -713,27 +713,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_08</t>
+          <t>1K_PFF_ADAMTS19_07</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_09</t>
+          <t>1K_PFF_ADAMTS19_08</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -743,20 +743,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1K_PFF_ADAMTS19_10</t>
+          <t>1K_PFF_ADAMTS19_09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,14 +804,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_01</t>
+          <t>1K_PFF_ADAMTS19_10</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -821,55 +821,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_02</t>
+          <t>1K_PFF_SCR_01</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_03</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_04</t>
+          <t>1K_PFF_SCR_02</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_05</t>
+          <t>1K_PFF_SCR_03</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_06</t>
+          <t>1K_PFF_SCR_03</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_07</t>
+          <t>1K_PFF_SCR_04</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_SCR_05</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_08</t>
+          <t>1K_PFF_SCR_06</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_09</t>
+          <t>1K_PFF_SCR_07</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,24 +947,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1K_PFF_SCR_10</t>
+          <t>1K_PFF_SCR_08</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_08</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,24 +973,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_01</t>
+          <t>1K_PFF_SCR_10</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,24 +1012,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_02</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_03</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_04</t>
+          <t>1K_PFF_TAX1BP1_01</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_05</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,24 +1064,24 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_06</t>
+          <t>1K_PFF_TAX1BP1_02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_06</t>
+          <t>1K_PFF_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -1090,11 +1090,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,11 +1116,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_07</t>
+          <t>1K_PFF_TAX1BP1_03</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,20 +1129,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_08</t>
+          <t>1K_PFF_TAX1BP1_04</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1K_PFF_TAX1BP1_09</t>
+          <t>1K_PFF_TAX1BP1_05</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,13 +1181,156 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_06</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_07</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_08</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_09</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>1K_PFF_TAX1BP1_10</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1K_PFF_TAX1BP1_10</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
